--- a/Proyecto3/Datos-IA-3Test.xlsx
+++ b/Proyecto3/Datos-IA-3Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desktop\IA\intro-AI\Proyecto3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ABDC87-AD12-4C0D-AA2A-ACB88E49FBB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD81B4C1-E0D0-42FA-B298-DB80616F5FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{3949D4D2-7669-4DF7-BCD4-58C1C908E501}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{3949D4D2-7669-4DF7-BCD4-58C1C908E501}"/>
   </bookViews>
   <sheets>
     <sheet name="Smokes" sheetId="1" r:id="rId1"/>
@@ -532,7 +532,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -566,7 +566,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -660,7 +660,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
